--- a/prosym29_1988/29.xlsx
+++ b/prosym29_1988/29.xlsx
@@ -82,10 +82,10 @@
     <t>号</t>
   </si>
   <si>
-    <t>表記開始ページ</t>
-  </si>
-  <si>
-    <t>表記終了ページ</t>
+    <t>開始ページ</t>
+  </si>
+  <si>
+    <t>終了ページ</t>
   </si>
   <si>
     <t>発行年月日</t>
